--- a/Bases_de_Dados_(2006-2021)/China Chinese Super League_2012.xlsx
+++ b/Bases_de_Dados_(2006-2021)/China Chinese Super League_2012.xlsx
@@ -1894,7 +1894,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -3643,7 +3643,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -5164,7 +5164,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -7131,7 +7131,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -8434,7 +8434,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -9529,7 +9529,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -12145,7 +12145,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -13448,7 +13448,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -14543,7 +14543,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -16718,7 +16718,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -17813,7 +17813,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="I80" t="n">
@@ -20642,7 +20642,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -22609,7 +22609,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="I102" t="n">
@@ -24566,7 +24566,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -25225,7 +25225,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="I114" t="n">
@@ -27623,7 +27623,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="I125" t="n">
@@ -29144,7 +29144,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -30239,7 +30239,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="I137" t="n">
@@ -32414,7 +32414,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -34163,7 +34163,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="I155" t="n">
@@ -36120,7 +36120,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -37428,7 +37428,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -38741,7 +38741,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="I176" t="n">
@@ -42447,7 +42447,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="I193" t="n">
@@ -44622,7 +44622,7 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -45494,7 +45494,7 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -47243,7 +47243,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="I215" t="n">
@@ -48764,7 +48764,7 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -50949,7 +50949,7 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="I232" t="n">
@@ -52470,7 +52470,7 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
